--- a/Client/WebClient/lang/fibertest_strings_old.xlsx
+++ b/Client/WebClient/lang/fibertest_strings_old.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest20\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8966D19A-DC59-4432-AC97-DBDFBEE136C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5116FF44-E638-4A13-B0EE-359EFF7F3BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="780" windowWidth="23430" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="3317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="3379">
   <si>
     <t>Name</t>
   </si>
@@ -4295,7 +4295,7 @@
     <t>Equipment title</t>
   </si>
   <si>
-    <t>Название оборуд.</t>
+    <t>Название оборудования</t>
   </si>
   <si>
     <t>SID_Go_to_the_fork</t>
@@ -8966,223 +8966,181 @@
     <t>Применяются настройки мониторинга</t>
   </si>
   <si>
-    <t>en-US</t>
-  </si>
-  <si>
-    <t>ru-RU</t>
-  </si>
-  <si>
-    <t>SID_Items_per_page</t>
-  </si>
-  <si>
-    <t>Items per page</t>
-  </si>
-  <si>
-    <t>Строк на странице</t>
-  </si>
-  <si>
-    <t>SID_Next_page</t>
-  </si>
-  <si>
-    <t>Next page</t>
-  </si>
-  <si>
-    <t>Следующая страница</t>
-  </si>
-  <si>
-    <t>SID_Previous_page</t>
-  </si>
-  <si>
-    <t>Previous page</t>
-  </si>
-  <si>
-    <t>Предыдущая страница</t>
-  </si>
-  <si>
-    <t>SID_of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> of </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> из </t>
-  </si>
-  <si>
-    <t>SID_Responsive</t>
-  </si>
-  <si>
-    <t>Responsive</t>
-  </si>
-  <si>
-    <t>Отзывчивый</t>
-  </si>
-  <si>
-    <t>SID_Rtu_Moni_Settings</t>
-  </si>
-  <si>
-    <t>SID_measurement_frequency</t>
-  </si>
-  <si>
-    <t>measurement frequency</t>
-  </si>
-  <si>
-    <t>частота измерений</t>
-  </si>
-  <si>
-    <t>SID_saving_frequency</t>
-  </si>
-  <si>
-    <t>saving frequency</t>
-  </si>
-  <si>
-    <t>частота сохранения</t>
-  </si>
-  <si>
-    <t>SID_Cycle_full_time_sec</t>
-  </si>
-  <si>
-    <t>SID_Auto</t>
-  </si>
-  <si>
-    <t>Авто</t>
-  </si>
-  <si>
-    <t>SID_Landmark_count_does_not_match_graph</t>
-  </si>
-  <si>
-    <t>Landmark count on base ref does not match graph</t>
-  </si>
-  <si>
-    <t>Количество ориентиров на рефлектограмме не соответствует графу</t>
-  </si>
-  <si>
-    <t>Attach optical switch</t>
-  </si>
-  <si>
-    <t>Подключить оптический переключатель</t>
-  </si>
-  <si>
-    <t>SID_Optical_switch_s_IP_address</t>
-  </si>
-  <si>
-    <t>Optical switch's IP address</t>
-  </si>
-  <si>
-    <t>IP адрес оптического переключателя</t>
-  </si>
-  <si>
-    <t>SID_Web_Client_software_version</t>
-  </si>
-  <si>
-    <t>Web-Client software version</t>
-  </si>
-  <si>
-    <t>Версия ПК WebClient</t>
-  </si>
-  <si>
-    <t>SID_Web_Api_software_version</t>
-  </si>
-  <si>
-    <t>Web API software version</t>
-  </si>
-  <si>
-    <t>Верия ПК Web API</t>
-  </si>
-  <si>
-    <t>SID_Save_reflectogram</t>
-  </si>
-  <si>
-    <t>Save reflectogram</t>
-  </si>
-  <si>
-    <t>Сохранить рефлектограмму</t>
-  </si>
-  <si>
-    <t>SID_Save_ref_and_base</t>
-  </si>
-  <si>
-    <t>Save ref + base</t>
-  </si>
-  <si>
-    <t>Сохранить рефлектограмму + базовую</t>
-  </si>
-  <si>
-    <t>SID_Logout</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Выйти</t>
-  </si>
-  <si>
-    <t>SID_RTU_Tree</t>
-  </si>
-  <si>
-    <t>RTUs</t>
-  </si>
-  <si>
-    <t>Модули</t>
-  </si>
-  <si>
-    <t>SID_Reject</t>
-  </si>
-  <si>
-    <t>Reject</t>
-  </si>
-  <si>
-    <t>Отклонить</t>
-  </si>
-  <si>
-    <t>SID_Yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>SID_No</t>
-  </si>
-  <si>
-    <t>SID_Device</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Устройство</t>
-  </si>
-  <si>
-    <t>SID_Application_closed</t>
-  </si>
-  <si>
-    <t>Application closed.</t>
-  </si>
-  <si>
-    <t>Приложение закрыто.</t>
-  </si>
-  <si>
-    <t>SID_Versions_do_not_match</t>
-  </si>
-  <si>
-    <t>Client's version does not match server's one!</t>
-  </si>
-  <si>
-    <t>Версия клиента не совпадает с версией сервера</t>
-  </si>
-  <si>
-    <t>SID_Please_close_browser</t>
-  </si>
-  <si>
-    <t>Please close browser's tab and start Fibertest again.</t>
-  </si>
-  <si>
-    <t>Пожалуйста, закройте вкладку браузера и повторите подключение в новой вкладке.</t>
-  </si>
-  <si>
-    <t>{{0}} without name</t>
+    <t>SID_There_is_a_TCE_with_the_same_name</t>
+  </si>
+  <si>
+    <t>There is a TCE with the same name</t>
+  </si>
+  <si>
+    <t>Существует TCE с таким же названием</t>
+  </si>
+  <si>
+    <t>SID_There_is_a_TCE_with_the_same_IP_address</t>
+  </si>
+  <si>
+    <t>There is a TCE with the same IP address</t>
+  </si>
+  <si>
+    <t>Существует TCE с таким же IP адресом</t>
+  </si>
+  <si>
+    <t>SID_ThresholdsAttention</t>
+  </si>
+  <si>
+    <t>Attention! The specified thresholds must be greater than the maximum values ​​in the inclusions on the trace</t>
+  </si>
+  <si>
+    <t>Внимание! Заданные пороги должны быть больше максимальных значений в неоднородностях на трассе</t>
+  </si>
+  <si>
+    <t>SID_Current_operation</t>
+  </si>
+  <si>
+    <t>Current operation</t>
+  </si>
+  <si>
+    <t>Текущая операция</t>
+  </si>
+  <si>
+    <t>SID_Operations_result</t>
+  </si>
+  <si>
+    <t>Operations result</t>
+  </si>
+  <si>
+    <t>Результаты операций</t>
+  </si>
+  <si>
+    <t>SID_Unauthorized_RTU_access</t>
+  </si>
+  <si>
+    <t>Unauthorized RTU access</t>
+  </si>
+  <si>
+    <t>Неавторизованный доступ к RTU</t>
+  </si>
+  <si>
+    <t>SID_Unauthorized_access_to_RTU__0__</t>
+  </si>
+  <si>
+    <t>SID_Please_enter_Platform_serial_number</t>
+  </si>
+  <si>
+    <t>Please enter Platform serial number</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите Серийный номер платформы</t>
+  </si>
+  <si>
+    <t>SID_Continue</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Продолжить</t>
+  </si>
+  <si>
+    <t>SID_Initialize_and_synch</t>
+  </si>
+  <si>
+    <t>Initialize RTU and Synchronize base refs</t>
+  </si>
+  <si>
+    <t>Инициализировать RTU и синхронизировать базовые</t>
+  </si>
+  <si>
+    <t>SID_Sending_base_refs_for_port__0_</t>
+  </si>
+  <si>
+    <t>SID_Iit_address</t>
+  </si>
+  <si>
+    <t>220099, the Republic of Belarus, Minsk, Kazintsa st., 11A, office 304a</t>
+  </si>
+  <si>
+    <t>220099, Республика Беларусь, г. Минск, ул. Казинца, д. 11а, офис 304а</t>
+  </si>
+  <si>
+    <t>SID_Iit_Phone</t>
+  </si>
+  <si>
+    <t>Phone:  +375 17 2359048</t>
+  </si>
+  <si>
+    <t>Телефон: +375 17 2359048</t>
+  </si>
+  <si>
+    <t>SID_All_rights_reserved</t>
+  </si>
+  <si>
+    <t>All rights reserved</t>
+  </si>
+  <si>
+    <t>Все права защищены</t>
+  </si>
+  <si>
+    <t>SID_Optical_km</t>
+  </si>
+  <si>
+    <t>Optical, km</t>
+  </si>
+  <si>
+    <t>Оптич, км</t>
+  </si>
+  <si>
+    <t>SID_Gps_km</t>
+  </si>
+  <si>
+    <t>GPS, km</t>
+  </si>
+  <si>
+    <t>GPS, км</t>
+  </si>
+  <si>
+    <t>SID_Cable_reserve_m</t>
+  </si>
+  <si>
+    <t>Cable reserve, m</t>
+  </si>
+  <si>
+    <t>Запас кабеля, м</t>
+  </si>
+  <si>
+    <t>SID_Gps_section_km</t>
+  </si>
+  <si>
+    <t>GPS section, km</t>
+  </si>
+  <si>
+    <t>Участок по GPS, км</t>
+  </si>
+  <si>
+    <t>SID_Optical_section_km</t>
+  </si>
+  <si>
+    <t>Optical section, km</t>
+  </si>
+  <si>
+    <t>Оптический участок, км</t>
+  </si>
+  <si>
+    <t>SID_Edit_node</t>
+  </si>
+  <si>
+    <t>Edit node</t>
+  </si>
+  <si>
+    <t>Редактировать узел</t>
+  </si>
+  <si>
+    <t>SID_Edit_fiber</t>
+  </si>
+  <si>
+    <t>Edit fiber</t>
+  </si>
+  <si>
+    <t>Редактировать участок</t>
   </si>
   <si>
     <t>{{0}} без имени</t>
@@ -9973,16 +9931,244 @@
     <t>RTU {{0}} занят.</t>
   </si>
   <si>
+    <t>Unauthorized access to RTU {{0}}.</t>
+  </si>
+  <si>
+    <t>Неавторизованный доступ к RTU {{0}}.</t>
+  </si>
+  <si>
+    <t>Sending base refs for port {{0}}</t>
+  </si>
+  <si>
+    <t>Пересылка базовых для порта {{0}}</t>
+  </si>
+  <si>
+    <t>en-US</t>
+  </si>
+  <si>
+    <t>ru-RU</t>
+  </si>
+  <si>
+    <t>SID_Items_per_page</t>
+  </si>
+  <si>
+    <t>Items per page</t>
+  </si>
+  <si>
+    <t>Строк на странице</t>
+  </si>
+  <si>
+    <t>SID_Next_page</t>
+  </si>
+  <si>
+    <t>Next page</t>
+  </si>
+  <si>
+    <t>Следующая страница</t>
+  </si>
+  <si>
+    <t>SID_Previous_page</t>
+  </si>
+  <si>
+    <t>Previous page</t>
+  </si>
+  <si>
+    <t>Предыдущая страница</t>
+  </si>
+  <si>
+    <t>SID_of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> из </t>
+  </si>
+  <si>
+    <t>SID_Responsive</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Отзывчивый</t>
+  </si>
+  <si>
+    <t>SID_Rtu_Moni_Settings</t>
+  </si>
+  <si>
     <t xml:space="preserve">{{0}}: Monitoring Settings </t>
   </si>
   <si>
+    <t>{{0}}:  Настройки мониторинга</t>
+  </si>
+  <si>
+    <t>SID_measurement_frequency</t>
+  </si>
+  <si>
+    <t>measurement frequency</t>
+  </si>
+  <si>
+    <t>частота измерений</t>
+  </si>
+  <si>
+    <t>SID_saving_frequency</t>
+  </si>
+  <si>
+    <t>saving frequency</t>
+  </si>
+  <si>
+    <t>частота сохранения</t>
+  </si>
+  <si>
+    <t>SID_Cycle_full_time_sec</t>
+  </si>
+  <si>
     <t>Cycle full time {{0}} sec</t>
   </si>
   <si>
-    <t>{{0}}:  Настройки мониторинга</t>
-  </si>
-  <si>
     <t>Полное время цикла {{0}} сек</t>
+  </si>
+  <si>
+    <t>SID_Auto</t>
+  </si>
+  <si>
+    <t>Авто</t>
+  </si>
+  <si>
+    <t>SID_Landmark_count_does_not_match_graph</t>
+  </si>
+  <si>
+    <t>Landmark count on base ref does not match graph</t>
+  </si>
+  <si>
+    <t>Количество ориентиров на рефлектограмме не соответствует графу</t>
+  </si>
+  <si>
+    <t>Attach optical switch</t>
+  </si>
+  <si>
+    <t>Подключить оптический переключатель</t>
+  </si>
+  <si>
+    <t>SID_Optical_switch_s_IP_address</t>
+  </si>
+  <si>
+    <t>Optical switch's IP address</t>
+  </si>
+  <si>
+    <t>IP адрес оптического переключателя</t>
+  </si>
+  <si>
+    <t>SID_Web_Client_software_version</t>
+  </si>
+  <si>
+    <t>Web-Client software version</t>
+  </si>
+  <si>
+    <t>Версия ПК WebClient</t>
+  </si>
+  <si>
+    <t>SID_Web_Api_software_version</t>
+  </si>
+  <si>
+    <t>Web API software version</t>
+  </si>
+  <si>
+    <t>Верия ПК Web API</t>
+  </si>
+  <si>
+    <t>SID_Save_reflectogram</t>
+  </si>
+  <si>
+    <t>Save reflectogram</t>
+  </si>
+  <si>
+    <t>Сохранить рефлектограмму</t>
+  </si>
+  <si>
+    <t>SID_Save_ref_and_base</t>
+  </si>
+  <si>
+    <t>Save ref + base</t>
+  </si>
+  <si>
+    <t>Сохранить рефлектограмму + базовую</t>
+  </si>
+  <si>
+    <t>SID_Logout</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Выйти</t>
+  </si>
+  <si>
+    <t>SID_RTU_Tree</t>
+  </si>
+  <si>
+    <t>RTUs</t>
+  </si>
+  <si>
+    <t>Модули</t>
+  </si>
+  <si>
+    <t>SID_Reject</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Отклонить</t>
+  </si>
+  <si>
+    <t>SID_Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>SID_No</t>
+  </si>
+  <si>
+    <t>SID_Device</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Устройство</t>
+  </si>
+  <si>
+    <t>SID_Application_closed</t>
+  </si>
+  <si>
+    <t>Application closed.</t>
+  </si>
+  <si>
+    <t>Приложение закрыто.</t>
+  </si>
+  <si>
+    <t>SID_Versions_do_not_match</t>
+  </si>
+  <si>
+    <t>Client's version does not match server's one!</t>
+  </si>
+  <si>
+    <t>Версия клиента не совпадает с версией сервера</t>
+  </si>
+  <si>
+    <t>SID_Please_close_browser</t>
+  </si>
+  <si>
+    <t>Please close browser's tab and start Fibertest again.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, закройте вкладку браузера и повторите подключение в новой вкладке.</t>
   </si>
 </sst>
 </file>
@@ -10042,7 +10228,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10065,7 +10255,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{2724B5CE-EA8B-4F35-99AA-1909AD3275B3}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{EA2CA503-63F4-4FDA-864F-6D7DC7B1698C}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -10092,7 +10282,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{BE1CCAA9-EACA-482A-8BE0-0C2A4791B817}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{89DFD66E-20F5-4815-9697-4EC48308C5E6}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -10405,28 +10595,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1121"/>
+  <dimension ref="A1:C1142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1103" workbookViewId="0">
-      <selection activeCell="C1105" sqref="C1105"/>
+    <sheetView tabSelected="1" topLeftCell="A1111" workbookViewId="0">
+      <selection activeCell="D1121" sqref="D1121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.85546875" customWidth="1"/>
-    <col min="2" max="2" width="99.28515625" customWidth="1"/>
-    <col min="3" max="3" width="243.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2978</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2979</v>
+      <c r="B1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3304</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10863,10 +11053,10 @@
         <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>3050</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>3051</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -10896,10 +11086,10 @@
         <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>3052</v>
+        <v>3038</v>
       </c>
       <c r="C44" t="s">
-        <v>3052</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -10907,10 +11097,10 @@
         <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>3053</v>
+        <v>3039</v>
       </c>
       <c r="C45" t="s">
-        <v>3054</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -11149,10 +11339,10 @@
         <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>3055</v>
+        <v>3041</v>
       </c>
       <c r="C67" t="s">
-        <v>3055</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -11754,10 +11944,10 @@
         <v>353</v>
       </c>
       <c r="B122" t="s">
-        <v>3056</v>
+        <v>3042</v>
       </c>
       <c r="C122" t="s">
-        <v>3057</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -11765,10 +11955,10 @@
         <v>354</v>
       </c>
       <c r="B123" t="s">
-        <v>3058</v>
+        <v>3044</v>
       </c>
       <c r="C123" t="s">
-        <v>3059</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -12139,10 +12329,10 @@
         <v>449</v>
       </c>
       <c r="B157" t="s">
-        <v>3060</v>
+        <v>3046</v>
       </c>
       <c r="C157" t="s">
-        <v>3060</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -12381,10 +12571,10 @@
         <v>511</v>
       </c>
       <c r="B179" t="s">
-        <v>3061</v>
+        <v>3047</v>
       </c>
       <c r="C179" t="s">
-        <v>3062</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -12821,10 +13011,10 @@
         <v>629</v>
       </c>
       <c r="B219" t="s">
-        <v>3063</v>
+        <v>3049</v>
       </c>
       <c r="C219" t="s">
-        <v>3064</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -12865,10 +13055,10 @@
         <v>639</v>
       </c>
       <c r="B223" t="s">
-        <v>3065</v>
+        <v>3051</v>
       </c>
       <c r="C223" t="s">
-        <v>3066</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -12876,10 +13066,10 @@
         <v>640</v>
       </c>
       <c r="B224" t="s">
-        <v>3067</v>
+        <v>3053</v>
       </c>
       <c r="C224" t="s">
-        <v>3068</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -12920,10 +13110,10 @@
         <v>650</v>
       </c>
       <c r="B228" t="s">
-        <v>3069</v>
+        <v>3055</v>
       </c>
       <c r="C228" t="s">
-        <v>3070</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -12931,10 +13121,10 @@
         <v>651</v>
       </c>
       <c r="B229" t="s">
-        <v>3071</v>
+        <v>3057</v>
       </c>
       <c r="C229" t="s">
-        <v>3072</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -12964,10 +13154,10 @@
         <v>657</v>
       </c>
       <c r="B232" t="s">
-        <v>3073</v>
+        <v>3059</v>
       </c>
       <c r="C232" t="s">
-        <v>3073</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -13008,10 +13198,10 @@
         <v>664</v>
       </c>
       <c r="B236" t="s">
-        <v>3074</v>
+        <v>3060</v>
       </c>
       <c r="C236" t="s">
-        <v>3074</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -13019,10 +13209,10 @@
         <v>665</v>
       </c>
       <c r="B237" t="s">
-        <v>3075</v>
+        <v>3061</v>
       </c>
       <c r="C237" t="s">
-        <v>3075</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -13030,10 +13220,10 @@
         <v>666</v>
       </c>
       <c r="B238" t="s">
-        <v>3076</v>
+        <v>3062</v>
       </c>
       <c r="C238" t="s">
-        <v>3076</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -13074,10 +13264,10 @@
         <v>674</v>
       </c>
       <c r="B242" t="s">
-        <v>3077</v>
+        <v>3063</v>
       </c>
       <c r="C242" t="s">
-        <v>3077</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -13283,10 +13473,10 @@
         <v>729</v>
       </c>
       <c r="B261" t="s">
-        <v>3078</v>
+        <v>3064</v>
       </c>
       <c r="C261" t="s">
-        <v>3079</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -13294,10 +13484,10 @@
         <v>730</v>
       </c>
       <c r="B262" t="s">
-        <v>3080</v>
+        <v>3066</v>
       </c>
       <c r="C262" t="s">
-        <v>3081</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -13305,10 +13495,10 @@
         <v>731</v>
       </c>
       <c r="B263" t="s">
-        <v>3082</v>
+        <v>3068</v>
       </c>
       <c r="C263" t="s">
-        <v>3083</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -13316,10 +13506,10 @@
         <v>732</v>
       </c>
       <c r="B264" t="s">
-        <v>3084</v>
+        <v>3070</v>
       </c>
       <c r="C264" t="s">
-        <v>3085</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -13404,10 +13594,10 @@
         <v>754</v>
       </c>
       <c r="B272" t="s">
-        <v>3086</v>
+        <v>3072</v>
       </c>
       <c r="C272" t="s">
-        <v>3087</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -13415,10 +13605,10 @@
         <v>755</v>
       </c>
       <c r="B273" t="s">
-        <v>3088</v>
+        <v>3074</v>
       </c>
       <c r="C273" t="s">
-        <v>3089</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -13426,10 +13616,10 @@
         <v>756</v>
       </c>
       <c r="B274" t="s">
-        <v>3090</v>
+        <v>3076</v>
       </c>
       <c r="C274" t="s">
-        <v>3091</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -13723,10 +13913,10 @@
         <v>835</v>
       </c>
       <c r="B301" t="s">
-        <v>3092</v>
+        <v>3078</v>
       </c>
       <c r="C301" t="s">
-        <v>3093</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -13734,10 +13924,10 @@
         <v>836</v>
       </c>
       <c r="B302" t="s">
-        <v>3094</v>
+        <v>3080</v>
       </c>
       <c r="C302" t="s">
-        <v>3095</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -13822,10 +14012,10 @@
         <v>858</v>
       </c>
       <c r="B310" t="s">
-        <v>3096</v>
+        <v>3082</v>
       </c>
       <c r="C310" t="s">
-        <v>3097</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -13833,10 +14023,10 @@
         <v>859</v>
       </c>
       <c r="B311" t="s">
-        <v>3098</v>
+        <v>3084</v>
       </c>
       <c r="C311" t="s">
-        <v>3099</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -13844,10 +14034,10 @@
         <v>860</v>
       </c>
       <c r="B312" t="s">
-        <v>3100</v>
+        <v>3086</v>
       </c>
       <c r="C312" t="s">
-        <v>3101</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -13855,10 +14045,10 @@
         <v>861</v>
       </c>
       <c r="B313" t="s">
-        <v>3102</v>
+        <v>3088</v>
       </c>
       <c r="C313" t="s">
-        <v>3103</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -13976,10 +14166,10 @@
         <v>892</v>
       </c>
       <c r="B324" t="s">
-        <v>3104</v>
+        <v>3090</v>
       </c>
       <c r="C324" t="s">
-        <v>3105</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -14020,10 +14210,10 @@
         <v>902</v>
       </c>
       <c r="B328" t="s">
-        <v>3106</v>
+        <v>3092</v>
       </c>
       <c r="C328" t="s">
-        <v>3107</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -14042,10 +14232,10 @@
         <v>906</v>
       </c>
       <c r="B330" t="s">
-        <v>3108</v>
+        <v>3094</v>
       </c>
       <c r="C330" t="s">
-        <v>3109</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -14570,10 +14760,10 @@
         <v>1048</v>
       </c>
       <c r="B378" t="s">
-        <v>3110</v>
+        <v>3096</v>
       </c>
       <c r="C378" t="s">
-        <v>3111</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -14933,10 +15123,10 @@
         <v>1144</v>
       </c>
       <c r="B411" t="s">
-        <v>3112</v>
+        <v>3098</v>
       </c>
       <c r="C411" t="s">
-        <v>3113</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -14944,10 +15134,10 @@
         <v>1145</v>
       </c>
       <c r="B412" t="s">
-        <v>3114</v>
+        <v>3100</v>
       </c>
       <c r="C412" t="s">
-        <v>3115</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -14955,10 +15145,10 @@
         <v>1146</v>
       </c>
       <c r="B413" t="s">
-        <v>3116</v>
+        <v>3102</v>
       </c>
       <c r="C413" t="s">
-        <v>3117</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -14977,10 +15167,10 @@
         <v>1150</v>
       </c>
       <c r="B415" t="s">
-        <v>3118</v>
+        <v>3104</v>
       </c>
       <c r="C415" t="s">
-        <v>3119</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -15010,10 +15200,10 @@
         <v>1157</v>
       </c>
       <c r="B418" t="s">
-        <v>3120</v>
+        <v>3106</v>
       </c>
       <c r="C418" t="s">
-        <v>3121</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -15120,10 +15310,10 @@
         <v>1185</v>
       </c>
       <c r="B428" t="s">
-        <v>3122</v>
+        <v>3108</v>
       </c>
       <c r="C428" t="s">
-        <v>3123</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -15131,10 +15321,10 @@
         <v>1186</v>
       </c>
       <c r="B429" t="s">
-        <v>3124</v>
+        <v>3110</v>
       </c>
       <c r="C429" t="s">
-        <v>3125</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -15153,10 +15343,10 @@
         <v>1190</v>
       </c>
       <c r="B431" t="s">
-        <v>3126</v>
+        <v>3112</v>
       </c>
       <c r="C431" t="s">
-        <v>3127</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -15164,10 +15354,10 @@
         <v>1191</v>
       </c>
       <c r="B432" t="s">
-        <v>3128</v>
+        <v>3114</v>
       </c>
       <c r="C432" t="s">
-        <v>3129</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -15285,10 +15475,10 @@
         <v>1222</v>
       </c>
       <c r="B443" t="s">
-        <v>3130</v>
+        <v>3116</v>
       </c>
       <c r="C443" t="s">
-        <v>3131</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -15296,10 +15486,10 @@
         <v>1223</v>
       </c>
       <c r="B444" t="s">
-        <v>3132</v>
+        <v>3118</v>
       </c>
       <c r="C444" t="s">
-        <v>3133</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -15318,10 +15508,10 @@
         <v>1227</v>
       </c>
       <c r="B446" t="s">
-        <v>3134</v>
+        <v>3120</v>
       </c>
       <c r="C446" t="s">
-        <v>3135</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -15329,10 +15519,10 @@
         <v>1228</v>
       </c>
       <c r="B447" t="s">
-        <v>3136</v>
+        <v>3122</v>
       </c>
       <c r="C447" t="s">
-        <v>3137</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -15439,10 +15629,10 @@
         <v>1256</v>
       </c>
       <c r="B457" t="s">
-        <v>3138</v>
+        <v>3124</v>
       </c>
       <c r="C457" t="s">
-        <v>3139</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -15450,10 +15640,10 @@
         <v>1257</v>
       </c>
       <c r="B458" t="s">
-        <v>3140</v>
+        <v>3126</v>
       </c>
       <c r="C458" t="s">
-        <v>3141</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -15582,10 +15772,10 @@
         <v>1291</v>
       </c>
       <c r="B470" t="s">
-        <v>3142</v>
+        <v>3128</v>
       </c>
       <c r="C470" t="s">
-        <v>3143</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -15912,10 +16102,10 @@
         <v>1378</v>
       </c>
       <c r="B500" t="s">
-        <v>3144</v>
+        <v>3130</v>
       </c>
       <c r="C500" t="s">
-        <v>3145</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -15923,10 +16113,10 @@
         <v>1379</v>
       </c>
       <c r="B501" t="s">
-        <v>3146</v>
+        <v>3132</v>
       </c>
       <c r="C501" t="s">
-        <v>3147</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -16000,10 +16190,10 @@
         <v>1398</v>
       </c>
       <c r="B508" t="s">
-        <v>3148</v>
+        <v>3134</v>
       </c>
       <c r="C508" t="s">
-        <v>3149</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -16374,10 +16564,10 @@
         <v>1496</v>
       </c>
       <c r="B542" t="s">
-        <v>3150</v>
+        <v>3136</v>
       </c>
       <c r="C542" t="s">
-        <v>3151</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -16418,10 +16608,10 @@
         <v>1506</v>
       </c>
       <c r="B546" t="s">
-        <v>3152</v>
+        <v>3138</v>
       </c>
       <c r="C546" t="s">
-        <v>3153</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -16803,10 +16993,10 @@
         <v>1609</v>
       </c>
       <c r="B581" t="s">
-        <v>3154</v>
+        <v>3140</v>
       </c>
       <c r="C581" t="s">
-        <v>3155</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -16891,10 +17081,10 @@
         <v>1631</v>
       </c>
       <c r="B589" t="s">
-        <v>3156</v>
+        <v>3142</v>
       </c>
       <c r="C589" t="s">
-        <v>3157</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -16913,10 +17103,10 @@
         <v>1635</v>
       </c>
       <c r="B591" t="s">
-        <v>3158</v>
+        <v>3144</v>
       </c>
       <c r="C591" t="s">
-        <v>3159</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -16968,10 +17158,10 @@
         <v>1648</v>
       </c>
       <c r="B596" t="s">
-        <v>3160</v>
+        <v>3146</v>
       </c>
       <c r="C596" t="s">
-        <v>3161</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -16979,10 +17169,10 @@
         <v>1649</v>
       </c>
       <c r="B597" t="s">
-        <v>3162</v>
+        <v>3148</v>
       </c>
       <c r="C597" t="s">
-        <v>3163</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -17001,10 +17191,10 @@
         <v>1653</v>
       </c>
       <c r="B599" t="s">
-        <v>3164</v>
+        <v>3150</v>
       </c>
       <c r="C599" t="s">
-        <v>3165</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -17012,10 +17202,10 @@
         <v>1654</v>
       </c>
       <c r="B600" t="s">
-        <v>3166</v>
+        <v>3152</v>
       </c>
       <c r="C600" t="s">
-        <v>3167</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -17023,10 +17213,10 @@
         <v>1655</v>
       </c>
       <c r="B601" t="s">
-        <v>3168</v>
+        <v>3154</v>
       </c>
       <c r="C601" t="s">
-        <v>3169</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -17034,10 +17224,10 @@
         <v>1656</v>
       </c>
       <c r="B602" t="s">
-        <v>3170</v>
+        <v>3156</v>
       </c>
       <c r="C602" t="s">
-        <v>3171</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -17100,10 +17290,10 @@
         <v>1672</v>
       </c>
       <c r="B608" t="s">
-        <v>3172</v>
+        <v>3158</v>
       </c>
       <c r="C608" t="s">
-        <v>3173</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -17122,10 +17312,10 @@
         <v>1676</v>
       </c>
       <c r="B610" t="s">
-        <v>3174</v>
+        <v>3160</v>
       </c>
       <c r="C610" t="s">
-        <v>3175</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -17166,10 +17356,10 @@
         <v>1686</v>
       </c>
       <c r="B614" t="s">
-        <v>3176</v>
+        <v>3162</v>
       </c>
       <c r="C614" t="s">
-        <v>3177</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -17188,10 +17378,10 @@
         <v>1690</v>
       </c>
       <c r="B616" t="s">
-        <v>3178</v>
+        <v>3164</v>
       </c>
       <c r="C616" t="s">
-        <v>3179</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -17199,10 +17389,10 @@
         <v>1691</v>
       </c>
       <c r="B617" t="s">
-        <v>3180</v>
+        <v>3166</v>
       </c>
       <c r="C617" t="s">
-        <v>3181</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -17221,10 +17411,10 @@
         <v>1695</v>
       </c>
       <c r="B619" t="s">
-        <v>3182</v>
+        <v>3168</v>
       </c>
       <c r="C619" t="s">
-        <v>3183</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -17232,10 +17422,10 @@
         <v>1696</v>
       </c>
       <c r="B620" t="s">
-        <v>3184</v>
+        <v>3170</v>
       </c>
       <c r="C620" t="s">
-        <v>3185</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -17342,10 +17532,10 @@
         <v>1723</v>
       </c>
       <c r="B630" t="s">
-        <v>3186</v>
+        <v>3172</v>
       </c>
       <c r="C630" t="s">
-        <v>3187</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -17353,10 +17543,10 @@
         <v>1724</v>
       </c>
       <c r="B631" t="s">
-        <v>3188</v>
+        <v>3174</v>
       </c>
       <c r="C631" t="s">
-        <v>3189</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -17375,10 +17565,10 @@
         <v>1728</v>
       </c>
       <c r="B633" t="s">
-        <v>3190</v>
+        <v>3176</v>
       </c>
       <c r="C633" t="s">
-        <v>3191</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -17386,10 +17576,10 @@
         <v>1729</v>
       </c>
       <c r="B634" t="s">
-        <v>3192</v>
+        <v>3178</v>
       </c>
       <c r="C634" t="s">
-        <v>3193</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -17397,10 +17587,10 @@
         <v>1730</v>
       </c>
       <c r="B635" t="s">
-        <v>3194</v>
+        <v>3180</v>
       </c>
       <c r="C635" t="s">
-        <v>3195</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -17408,10 +17598,10 @@
         <v>1731</v>
       </c>
       <c r="B636" t="s">
-        <v>3196</v>
+        <v>3182</v>
       </c>
       <c r="C636" t="s">
-        <v>3197</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -17419,10 +17609,10 @@
         <v>1732</v>
       </c>
       <c r="B637" t="s">
-        <v>3198</v>
+        <v>3184</v>
       </c>
       <c r="C637" t="s">
-        <v>3199</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -17430,10 +17620,10 @@
         <v>1733</v>
       </c>
       <c r="B638" t="s">
-        <v>3200</v>
+        <v>3186</v>
       </c>
       <c r="C638" t="s">
-        <v>3201</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
@@ -17441,10 +17631,10 @@
         <v>1734</v>
       </c>
       <c r="B639" t="s">
-        <v>3202</v>
+        <v>3188</v>
       </c>
       <c r="C639" t="s">
-        <v>3203</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -17452,10 +17642,10 @@
         <v>1735</v>
       </c>
       <c r="B640" t="s">
-        <v>3204</v>
+        <v>3190</v>
       </c>
       <c r="C640" t="s">
-        <v>3205</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -17463,10 +17653,10 @@
         <v>1736</v>
       </c>
       <c r="B641" t="s">
-        <v>3206</v>
+        <v>3192</v>
       </c>
       <c r="C641" t="s">
-        <v>3207</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -17815,10 +18005,10 @@
         <v>1830</v>
       </c>
       <c r="B673" t="s">
-        <v>3208</v>
+        <v>3194</v>
       </c>
       <c r="C673" t="s">
-        <v>3209</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
@@ -17848,10 +18038,10 @@
         <v>1837</v>
       </c>
       <c r="B676" t="s">
-        <v>3210</v>
+        <v>3196</v>
       </c>
       <c r="C676" t="s">
-        <v>3211</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
@@ -17859,10 +18049,10 @@
         <v>1838</v>
       </c>
       <c r="B677" t="s">
-        <v>3212</v>
+        <v>3198</v>
       </c>
       <c r="C677" t="s">
-        <v>3213</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
@@ -17870,10 +18060,10 @@
         <v>1839</v>
       </c>
       <c r="B678" t="s">
-        <v>3214</v>
+        <v>3200</v>
       </c>
       <c r="C678" t="s">
-        <v>3215</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
@@ -17881,10 +18071,10 @@
         <v>1840</v>
       </c>
       <c r="B679" t="s">
-        <v>3216</v>
+        <v>3202</v>
       </c>
       <c r="C679" t="s">
-        <v>3217</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -17892,10 +18082,10 @@
         <v>1841</v>
       </c>
       <c r="B680" t="s">
-        <v>3218</v>
+        <v>3204</v>
       </c>
       <c r="C680" t="s">
-        <v>3219</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
@@ -17903,10 +18093,10 @@
         <v>1842</v>
       </c>
       <c r="B681" t="s">
-        <v>3220</v>
+        <v>3206</v>
       </c>
       <c r="C681" t="s">
-        <v>3221</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
@@ -18376,10 +18566,10 @@
         <v>1968</v>
       </c>
       <c r="B724" t="s">
-        <v>3222</v>
+        <v>3208</v>
       </c>
       <c r="C724" t="s">
-        <v>3223</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
@@ -18486,10 +18676,10 @@
         <v>1995</v>
       </c>
       <c r="B734" t="s">
-        <v>3224</v>
+        <v>3210</v>
       </c>
       <c r="C734" t="s">
-        <v>3225</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
@@ -18497,10 +18687,10 @@
         <v>1996</v>
       </c>
       <c r="B735" t="s">
-        <v>3226</v>
+        <v>3212</v>
       </c>
       <c r="C735" t="s">
-        <v>3227</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
@@ -18508,10 +18698,10 @@
         <v>1997</v>
       </c>
       <c r="B736" t="s">
-        <v>3228</v>
+        <v>3214</v>
       </c>
       <c r="C736" t="s">
-        <v>3229</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
@@ -18519,10 +18709,10 @@
         <v>1998</v>
       </c>
       <c r="B737" t="s">
-        <v>3230</v>
+        <v>3216</v>
       </c>
       <c r="C737" t="s">
-        <v>3231</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
@@ -18915,10 +19105,10 @@
         <v>2102</v>
       </c>
       <c r="B773" t="s">
-        <v>3232</v>
+        <v>3218</v>
       </c>
       <c r="C773" t="s">
-        <v>3233</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
@@ -18926,10 +19116,10 @@
         <v>2103</v>
       </c>
       <c r="B774" t="s">
-        <v>3234</v>
+        <v>3220</v>
       </c>
       <c r="C774" t="s">
-        <v>3235</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
@@ -18937,10 +19127,10 @@
         <v>2104</v>
       </c>
       <c r="B775" t="s">
-        <v>3236</v>
+        <v>3222</v>
       </c>
       <c r="C775" t="s">
-        <v>3237</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
@@ -18948,10 +19138,10 @@
         <v>2105</v>
       </c>
       <c r="B776" t="s">
-        <v>3238</v>
+        <v>3224</v>
       </c>
       <c r="C776" t="s">
-        <v>3239</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
@@ -18959,10 +19149,10 @@
         <v>2106</v>
       </c>
       <c r="B777" t="s">
-        <v>3240</v>
+        <v>3226</v>
       </c>
       <c r="C777" t="s">
-        <v>3241</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
@@ -18992,10 +19182,10 @@
         <v>2113</v>
       </c>
       <c r="B780" t="s">
-        <v>3242</v>
+        <v>3228</v>
       </c>
       <c r="C780" t="s">
-        <v>3243</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
@@ -19003,10 +19193,10 @@
         <v>2114</v>
       </c>
       <c r="B781" t="s">
-        <v>3244</v>
+        <v>3230</v>
       </c>
       <c r="C781" t="s">
-        <v>3245</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
@@ -19135,10 +19325,10 @@
         <v>2148</v>
       </c>
       <c r="B793" t="s">
-        <v>3246</v>
+        <v>3232</v>
       </c>
       <c r="C793" t="s">
-        <v>3247</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
@@ -19157,10 +19347,10 @@
         <v>2152</v>
       </c>
       <c r="B795" t="s">
-        <v>3248</v>
+        <v>3234</v>
       </c>
       <c r="C795" t="s">
-        <v>3249</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
@@ -19212,10 +19402,10 @@
         <v>2165</v>
       </c>
       <c r="B800" t="s">
-        <v>3250</v>
+        <v>3236</v>
       </c>
       <c r="C800" t="s">
-        <v>3250</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
@@ -19223,10 +19413,10 @@
         <v>2166</v>
       </c>
       <c r="B801" t="s">
-        <v>3251</v>
+        <v>3237</v>
       </c>
       <c r="C801" t="s">
-        <v>3252</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
@@ -19245,10 +19435,10 @@
         <v>2169</v>
       </c>
       <c r="B803" t="s">
-        <v>3253</v>
+        <v>3239</v>
       </c>
       <c r="C803" t="s">
-        <v>3254</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
@@ -19564,10 +19754,10 @@
         <v>2253</v>
       </c>
       <c r="B832" t="s">
-        <v>3255</v>
+        <v>3241</v>
       </c>
       <c r="C832" t="s">
-        <v>3256</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
@@ -19597,10 +19787,10 @@
         <v>2260</v>
       </c>
       <c r="B835" t="s">
-        <v>3257</v>
+        <v>3243</v>
       </c>
       <c r="C835" t="s">
-        <v>3258</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.25">
@@ -19608,10 +19798,10 @@
         <v>2261</v>
       </c>
       <c r="B836" t="s">
-        <v>3259</v>
+        <v>3245</v>
       </c>
       <c r="C836" t="s">
-        <v>3260</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
@@ -19619,10 +19809,10 @@
         <v>2262</v>
       </c>
       <c r="B837" t="s">
-        <v>3261</v>
+        <v>3247</v>
       </c>
       <c r="C837" t="s">
-        <v>3262</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
@@ -19652,10 +19842,10 @@
         <v>2269</v>
       </c>
       <c r="B840" t="s">
-        <v>3263</v>
+        <v>3249</v>
       </c>
       <c r="C840" t="s">
-        <v>3264</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.25">
@@ -19839,10 +20029,10 @@
         <v>2318</v>
       </c>
       <c r="B857" t="s">
-        <v>3265</v>
+        <v>3251</v>
       </c>
       <c r="C857" t="s">
-        <v>3266</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
@@ -19872,10 +20062,10 @@
         <v>2325</v>
       </c>
       <c r="B860" t="s">
-        <v>3267</v>
+        <v>3253</v>
       </c>
       <c r="C860" t="s">
-        <v>3268</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
@@ -19883,10 +20073,10 @@
         <v>2326</v>
       </c>
       <c r="B861" t="s">
-        <v>3269</v>
+        <v>3255</v>
       </c>
       <c r="C861" t="s">
-        <v>3270</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
@@ -19894,10 +20084,10 @@
         <v>2327</v>
       </c>
       <c r="B862" t="s">
-        <v>3271</v>
+        <v>3257</v>
       </c>
       <c r="C862" t="s">
-        <v>3272</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
@@ -19905,10 +20095,10 @@
         <v>2328</v>
       </c>
       <c r="B863" t="s">
-        <v>3273</v>
+        <v>3259</v>
       </c>
       <c r="C863" t="s">
-        <v>3274</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
@@ -19916,10 +20106,10 @@
         <v>2329</v>
       </c>
       <c r="B864" t="s">
-        <v>3275</v>
+        <v>3261</v>
       </c>
       <c r="C864" t="s">
-        <v>3276</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
@@ -20103,10 +20293,10 @@
         <v>2378</v>
       </c>
       <c r="B881" t="s">
-        <v>3277</v>
+        <v>3263</v>
       </c>
       <c r="C881" t="s">
-        <v>3278</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.25">
@@ -20147,10 +20337,10 @@
         <v>2388</v>
       </c>
       <c r="B885" t="s">
-        <v>3279</v>
+        <v>3265</v>
       </c>
       <c r="C885" t="s">
-        <v>3280</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.25">
@@ -20180,10 +20370,10 @@
         <v>2395</v>
       </c>
       <c r="B888" t="s">
-        <v>3281</v>
+        <v>3267</v>
       </c>
       <c r="C888" t="s">
-        <v>3282</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.25">
@@ -20230,15 +20420,15 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="893" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>2408</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>3283</v>
+        <v>3269</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>3284</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.25">
@@ -20554,10 +20744,10 @@
         <v>2493</v>
       </c>
       <c r="B922" t="s">
-        <v>3285</v>
+        <v>3271</v>
       </c>
       <c r="C922" t="s">
-        <v>3286</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.25">
@@ -20851,10 +21041,10 @@
         <v>2571</v>
       </c>
       <c r="B949" t="s">
-        <v>3287</v>
+        <v>3273</v>
       </c>
       <c r="C949" t="s">
-        <v>3288</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.25">
@@ -20939,10 +21129,10 @@
         <v>2593</v>
       </c>
       <c r="B957" t="s">
-        <v>3289</v>
+        <v>3275</v>
       </c>
       <c r="C957" t="s">
-        <v>3290</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.25">
@@ -21005,10 +21195,10 @@
         <v>2609</v>
       </c>
       <c r="B963" t="s">
-        <v>3291</v>
+        <v>3277</v>
       </c>
       <c r="C963" t="s">
-        <v>3292</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.25">
@@ -21016,10 +21206,10 @@
         <v>2610</v>
       </c>
       <c r="B964" t="s">
-        <v>3293</v>
+        <v>3279</v>
       </c>
       <c r="C964" t="s">
-        <v>3294</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.25">
@@ -21126,10 +21316,10 @@
         <v>2638</v>
       </c>
       <c r="B974" t="s">
-        <v>3295</v>
+        <v>3281</v>
       </c>
       <c r="C974" t="s">
-        <v>3296</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.25">
@@ -21137,10 +21327,10 @@
         <v>2639</v>
       </c>
       <c r="B975" t="s">
-        <v>3297</v>
+        <v>3283</v>
       </c>
       <c r="C975" t="s">
-        <v>3298</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.25">
@@ -21192,10 +21382,10 @@
         <v>2652</v>
       </c>
       <c r="B980" t="s">
-        <v>3299</v>
+        <v>3285</v>
       </c>
       <c r="C980" t="s">
-        <v>3300</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.25">
@@ -21236,10 +21426,10 @@
         <v>2661</v>
       </c>
       <c r="B984" t="s">
-        <v>3301</v>
+        <v>3287</v>
       </c>
       <c r="C984" t="s">
-        <v>3302</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
@@ -21335,10 +21525,10 @@
         <v>2686</v>
       </c>
       <c r="B993" t="s">
-        <v>3303</v>
+        <v>3289</v>
       </c>
       <c r="C993" t="s">
-        <v>3304</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.25">
@@ -21808,10 +21998,10 @@
         <v>2809</v>
       </c>
       <c r="B1036" t="s">
-        <v>3305</v>
+        <v>3291</v>
       </c>
       <c r="C1036" t="s">
-        <v>3306</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
@@ -22094,10 +22284,10 @@
         <v>2885</v>
       </c>
       <c r="B1062" t="s">
-        <v>3307</v>
+        <v>3293</v>
       </c>
       <c r="C1062" t="s">
-        <v>3308</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
@@ -22127,10 +22317,10 @@
         <v>2892</v>
       </c>
       <c r="B1065" t="s">
-        <v>3309</v>
+        <v>3295</v>
       </c>
       <c r="C1065" t="s">
-        <v>3310</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
@@ -22424,10 +22614,10 @@
         <v>2971</v>
       </c>
       <c r="B1092" t="s">
-        <v>3311</v>
+        <v>3297</v>
       </c>
       <c r="C1092" t="s">
-        <v>3312</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.25">
@@ -22452,291 +22642,526 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="1095" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1095" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>2980</v>
+      </c>
+    </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1096" s="2" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B1096" s="2" t="s">
+      <c r="A1096" t="s">
         <v>2981</v>
       </c>
-      <c r="C1096" s="2" t="s">
+      <c r="B1096" t="s">
         <v>2982</v>
       </c>
+      <c r="C1096" t="s">
+        <v>2983</v>
+      </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1097" s="2" t="s">
-        <v>2983</v>
-      </c>
-      <c r="B1097" s="2" t="s">
+      <c r="A1097" t="s">
         <v>2984</v>
       </c>
-      <c r="C1097" s="2" t="s">
+      <c r="B1097" t="s">
         <v>2985</v>
       </c>
+      <c r="C1097" t="s">
+        <v>2986</v>
+      </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1098" s="2" t="s">
-        <v>2986</v>
-      </c>
-      <c r="B1098" s="2" t="s">
+      <c r="A1098" t="s">
         <v>2987</v>
       </c>
-      <c r="C1098" s="2" t="s">
+      <c r="B1098" t="s">
         <v>2988</v>
       </c>
+      <c r="C1098" t="s">
+        <v>2989</v>
+      </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1099" s="2" t="s">
-        <v>2989</v>
-      </c>
-      <c r="B1099" s="2" t="s">
+      <c r="A1099" t="s">
         <v>2990</v>
       </c>
-      <c r="C1099" s="2" t="s">
+      <c r="B1099" t="s">
         <v>2991</v>
       </c>
+      <c r="C1099" t="s">
+        <v>2992</v>
+      </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1100" s="2" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B1100" s="2" t="s">
+      <c r="A1100" t="s">
         <v>2993</v>
       </c>
-      <c r="C1100" s="2" t="s">
+      <c r="B1100" t="s">
         <v>2994</v>
       </c>
+      <c r="C1100" t="s">
+        <v>2995</v>
+      </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1101" s="2" t="s">
-        <v>2995</v>
-      </c>
-      <c r="B1101" s="2" t="s">
+      <c r="A1101" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1116" s="2"/>
+      <c r="B1116" s="2"/>
+      <c r="C1116" s="2"/>
+    </row>
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1117" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B1117" s="4" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1117" s="4" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1118" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B1118" s="4" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C1118" s="4" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1119" s="4" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B1119" s="4" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C1119" s="4" t="s">
         <v>3313</v>
       </c>
-      <c r="C1101" s="2" t="s">
+    </row>
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1120" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B1120" s="4" t="s">
         <v>3315</v>
       </c>
-    </row>
-    <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1102" s="2" t="s">
-        <v>2996</v>
-      </c>
-      <c r="B1102" s="3" t="s">
-        <v>2997</v>
-      </c>
-      <c r="C1102" s="2" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1103" s="2" t="s">
-        <v>2999</v>
-      </c>
-      <c r="B1103" s="3" t="s">
-        <v>3000</v>
-      </c>
-      <c r="C1103" s="2" t="s">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1104" s="2" t="s">
-        <v>3002</v>
-      </c>
-      <c r="B1104" s="2" t="s">
-        <v>3314</v>
-      </c>
-      <c r="C1104" s="2" t="s">
+      <c r="C1120" s="4" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1105" s="3" t="s">
-        <v>3003</v>
-      </c>
-      <c r="B1105" s="2" t="s">
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1121" s="4" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B1121" s="4" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C1121" s="4" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1122" s="4" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B1122" s="4" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C1122" s="4" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1123" s="4" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B1123" s="5" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C1123" s="4" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1124" s="4" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B1124" s="5" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C1124" s="4" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1125" s="4" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B1125" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C1125" s="4" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1126" s="5" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B1126" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="C1105" s="2" t="s">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1106" s="2" t="s">
-        <v>3005</v>
-      </c>
-      <c r="B1106" s="2" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C1106" s="2" t="s">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1107" s="4" t="s">
+      <c r="C1126" s="4" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1127" s="4" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B1127" s="4" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C1127" s="4" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1128" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B1107" s="4" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C1107" s="5" t="s">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1108" s="4" t="s">
-        <v>3010</v>
-      </c>
-      <c r="B1108" s="4" t="s">
-        <v>3011</v>
-      </c>
-      <c r="C1108" s="5" t="s">
-        <v>3012</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1109" s="5" t="s">
-        <v>3013</v>
-      </c>
-      <c r="B1109" s="2" t="s">
-        <v>3014</v>
-      </c>
-      <c r="C1109" s="2" t="s">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1110" s="5" t="s">
-        <v>3016</v>
-      </c>
-      <c r="B1110" s="6" t="s">
-        <v>3017</v>
-      </c>
-      <c r="C1110" s="5" t="s">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1111" s="1" t="s">
-        <v>3019</v>
-      </c>
-      <c r="B1111" s="1" t="s">
-        <v>3020</v>
-      </c>
-      <c r="C1111" s="1" t="s">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1112" s="1" t="s">
-        <v>3022</v>
-      </c>
-      <c r="B1112" s="1" t="s">
-        <v>3023</v>
-      </c>
-      <c r="C1112" s="1" t="s">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1113" s="1" t="s">
-        <v>3025</v>
-      </c>
-      <c r="B1113" s="1" t="s">
-        <v>3026</v>
-      </c>
-      <c r="C1113" s="1" t="s">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1114" s="1" t="s">
-        <v>3028</v>
-      </c>
-      <c r="B1114" s="1" t="s">
-        <v>3029</v>
-      </c>
-      <c r="C1114" s="1" t="s">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1115" s="1" t="s">
-        <v>3031</v>
-      </c>
-      <c r="B1115" s="1" t="s">
-        <v>3032</v>
-      </c>
-      <c r="C1115" s="1" t="s">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1116" s="1" t="s">
-        <v>3034</v>
-      </c>
-      <c r="B1116" s="1" t="s">
-        <v>3035</v>
-      </c>
-      <c r="C1116" s="1" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1117" s="1" t="s">
-        <v>3037</v>
-      </c>
-      <c r="B1117" s="1" t="s">
+      <c r="B1128" s="6" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C1128" s="7" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1129" s="6" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B1129" s="6" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C1129" s="7" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1130" s="7" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B1130" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C1130" s="4" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1131" s="7" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B1131" s="8" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1131" s="7" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1132" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B1132" s="3" t="s">
+        <v>3349</v>
+      </c>
+      <c r="C1132" s="3" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1133" s="3" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B1133" s="3" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C1133" s="3" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1134" s="3" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B1134" s="3" t="s">
+        <v>3355</v>
+      </c>
+      <c r="C1134" s="3" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1135" s="3" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B1135" s="3" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C1135" s="3" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1136" s="3" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B1136" s="3" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C1136" s="3" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1137" s="3" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B1137" s="3" t="s">
+        <v>3364</v>
+      </c>
+      <c r="C1137" s="3" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1138" s="3" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B1138" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="C1117" s="1" t="s">
+      <c r="C1138" s="3" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1118" s="1" t="s">
-        <v>3038</v>
-      </c>
-      <c r="B1118" s="1" t="s">
-        <v>3039</v>
-      </c>
-      <c r="C1118" s="1" t="s">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1119" s="1" t="s">
-        <v>3041</v>
-      </c>
-      <c r="B1119" s="1" t="s">
-        <v>3042</v>
-      </c>
-      <c r="C1119" s="1" t="s">
-        <v>3043</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1120" s="1" t="s">
-        <v>3044</v>
-      </c>
-      <c r="B1120" s="1" t="s">
-        <v>3045</v>
-      </c>
-      <c r="C1120" s="1" t="s">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1121" s="1" t="s">
-        <v>3047</v>
-      </c>
-      <c r="B1121" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C1121" s="5" t="s">
-        <v>3049</v>
+    <row r="1139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1139" s="3" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B1139" s="3" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C1139" s="3" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1140" s="3" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B1140" s="3" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C1140" s="3" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1141" s="3" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B1141" s="3" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C1141" s="3" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1142" s="3" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B1142" s="7" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1142" s="7" t="s">
+        <v>3378</v>
       </c>
     </row>
   </sheetData>
